--- a/Projektdaten/DB_Daten/Datenbanktabellen.xlsx
+++ b/Projektdaten/DB_Daten/Datenbanktabellen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DigitalerZwillingHSOS\Projektdaten\DB_Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,9 +68,6 @@
     <t>CLOB</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>Warentraeger</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>mittig</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="B2:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -757,12 +757,12 @@
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -777,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -806,7 +806,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>12</v>
@@ -815,12 +815,12 @@
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -870,7 +870,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -885,16 +885,16 @@
         <v>3</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="J16" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="K16" s="9"/>
     </row>
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -962,10 +962,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>10</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -1035,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>5</v>
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1109,16 +1109,16 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="I28" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1182,10 +1182,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>13</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1247,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1316,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="I40" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
@@ -1371,15 +1371,15 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="9"/>
     </row>
@@ -1424,16 +1424,16 @@
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,13 +1450,13 @@
     </row>
     <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="9"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1</v>
